--- a/biology/Botanique/Tilia_chinensis/Tilia_chinensis.xlsx
+++ b/biology/Botanique/Tilia_chinensis/Tilia_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tilia chinensis (Chinese linden, chinois : 椴树) est une espèce de tilleul endémique de Chine. Il fleurit en juillet ou août, très fréquenté par les abeilles collectant le nectar des fleurs. Le miel de la Montagne de Changbai est particulièrement réputé à cause des fleurs de tilleul et en particulier de T. chinensis[2],[3].
-Cette espèce a donné la variété 'intonsa' et la var. 'investita' (V. Engler) Rehder[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tilia chinensis (Chinese linden, chinois : 椴树) est une espèce de tilleul endémique de Chine. Il fleurit en juillet ou août, très fréquenté par les abeilles collectant le nectar des fleurs. Le miel de la Montagne de Changbai est particulièrement réputé à cause des fleurs de tilleul et en particulier de T. chinensis,.
+Cette espèce a donné la variété 'intonsa' et la var. 'investita' (V. Engler) Rehder.
 </t>
         </is>
       </c>
